--- a/posesiones/1541195.xlsx
+++ b/posesiones/1541195.xlsx
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>21</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>10</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>25</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>9</v>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>17</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>31</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>12</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>7</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>5</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>17</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>11</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>13</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>17</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>13</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>20</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>15</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44">
         <v>20</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>12</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4279,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>14</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>10</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>13</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>22</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R65">
         <v>17</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>22</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R70">
         <v>12</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R73">
         <v>26</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R81">
         <v>14</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>9</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>21</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6111,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R89">
         <v>26</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R90">
         <v>16</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6881,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R105">
         <v>33</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R107">
         <v>15</v>
@@ -7025,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7069,10 +7069,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7263,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R113">
         <v>17</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R118">
         <v>33</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7607,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R120">
         <v>6</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R126">
         <v>18</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R129">
         <v>20</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R133">
         <v>17</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8342,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R135">
         <v>3</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R147">
         <v>31</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9109,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R151">
         <v>24</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R153">
         <v>23</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R155">
         <v>10</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R157">
         <v>20</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9518,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R159">
         <v>18</v>
@@ -9571,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R160">
         <v>22</v>
@@ -9624,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R161">
         <v>19</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R168">
         <v>1</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R170">
         <v>7</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10259,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R174">
         <v>19</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10682,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R183">
         <v>40</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10829,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>18</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11164,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R193">
         <v>1</v>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11314,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R196">
         <v>28</v>
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R198">
         <v>20</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11517,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R200">
         <v>9</v>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R203">
         <v>4</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R206">
         <v>10</v>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R208">
         <v>14</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R210">
         <v>13</v>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12117,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R212">
         <v>20</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R214">
         <v>26</v>
@@ -12270,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R215">
         <v>9</v>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R216">
         <v>16</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12520,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R220">
         <v>36</v>
@@ -12570,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12758,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>21</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13049,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R231">
         <v>6</v>
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13140,10 +13140,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13237,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13425,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13466,10 +13466,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13660,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R244">
         <v>18</v>
@@ -13713,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R245">
         <v>18</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13813,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R247">
         <v>16</v>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R249">
         <v>22</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14019,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>13</v>
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14119,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R253">
         <v>14</v>
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R254">
         <v>22</v>
@@ -14222,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14272,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R256">
         <v>28</v>
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14372,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R258">
         <v>23</v>
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R260">
         <v>4</v>
@@ -14525,7 +14525,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14575,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R262">
         <v>6</v>
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R266">
         <v>23</v>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R268">
         <v>13</v>
@@ -14931,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R270">
         <v>18</v>
@@ -15031,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15075,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15122,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15219,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R275">
         <v>18</v>
@@ -15272,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R276">
         <v>5</v>
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15372,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R278">
         <v>14</v>
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15472,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R280">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R282">
         <v>14</v>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R284">
         <v>20</v>
@@ -15731,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R285">
         <v>16</v>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15834,7 +15834,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R287">
         <v>22</v>
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15937,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R289">
         <v>9</v>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16037,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R291">
         <v>21</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16140,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R293">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16240,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16287,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16440,7 +16440,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R299">
         <v>14</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16637,7 +16637,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R303">
         <v>28</v>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16922,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16972,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R310">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R311">
         <v>20</v>
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R313">
         <v>9</v>
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17219,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R316">
         <v>3</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17416,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17466,7 +17466,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R320">
         <v>20</v>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17569,7 +17569,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>12</v>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17669,7 +17669,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R324">
         <v>16</v>
@@ -17719,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R328">
         <v>15</v>
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18339,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18389,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R339">
         <v>19</v>
@@ -18439,7 +18439,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18533,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R346">
         <v>4</v>
@@ -18768,10 +18768,10 @@
         <v>1</v>
       </c>
       <c r="P347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19006,7 +19006,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19053,7 +19053,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19094,10 +19094,10 @@
         <v>1</v>
       </c>
       <c r="P354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19141,7 +19141,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R356">
         <v>11</v>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19388,7 +19388,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R360">
         <v>23</v>
@@ -19441,7 +19441,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R361">
         <v>16</v>
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19541,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19682,7 +19682,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19776,7 +19776,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19826,7 +19826,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R369">
         <v>26</v>
@@ -19879,7 +19879,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R370">
         <v>27</v>
@@ -19932,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R372">
         <v>24</v>
@@ -20029,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20079,7 +20079,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R374">
         <v>5</v>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20223,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20273,7 +20273,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R378">
         <v>16</v>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20373,7 +20373,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R380">
         <v>23</v>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20476,7 +20476,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R382">
         <v>14</v>
@@ -20529,7 +20529,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20579,7 +20579,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R384">
         <v>11</v>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R386">
         <v>6</v>
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20776,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20823,7 +20823,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20870,7 +20870,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20920,7 +20920,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R391">
         <v>22</v>
@@ -20970,7 +20970,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21064,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21161,7 +21161,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R396">
         <v>18</v>
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R398">
         <v>16</v>
@@ -21311,7 +21311,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21358,7 +21358,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21405,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21455,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R402">
         <v>24</v>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21555,7 +21555,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R404">
         <v>17</v>
@@ -21605,7 +21605,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21655,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R406">
         <v>19</v>
@@ -21705,7 +21705,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21755,7 +21755,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R408">
         <v>6</v>
@@ -21805,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21899,7 +21899,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21949,7 +21949,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R412">
         <v>23</v>
@@ -22002,7 +22002,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R413">
         <v>12</v>
@@ -22055,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22105,7 +22105,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R415">
         <v>22</v>
@@ -22155,7 +22155,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22484,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22531,7 +22531,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22581,7 +22581,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R425">
         <v>21</v>
@@ -22634,7 +22634,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R426">
         <v>14</v>
@@ -22687,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22734,7 +22734,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22881,7 +22881,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22931,7 +22931,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R432">
         <v>33</v>
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23025,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23119,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23213,7 +23213,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23307,7 +23307,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23357,7 +23357,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R441">
         <v>18</v>
@@ -23407,7 +23407,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23454,7 +23454,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23504,7 +23504,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R444">
         <v>27</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23607,7 +23607,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R446">
         <v>17</v>
@@ -23660,7 +23660,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23710,7 +23710,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R448">
         <v>12</v>
@@ -23763,7 +23763,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R449">
         <v>21</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24051,7 +24051,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24289,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R460">
         <v>16</v>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24386,7 +24386,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R462">
         <v>6</v>
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24489,7 +24489,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R464">
         <v>18</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24589,7 +24589,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24733,7 +24733,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R469">
         <v>4</v>
@@ -24780,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24830,7 +24830,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R471">
         <v>2</v>
@@ -24883,7 +24883,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R472">
         <v>10</v>
@@ -24936,7 +24936,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R473">
         <v>0</v>
@@ -24980,10 +24980,10 @@
         <v>1</v>
       </c>
       <c r="P474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q474">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25024,7 +25024,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
